--- a/Code/Results/Cases/Case_1_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_162/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.019637715970846</v>
+        <v>4.836692403563232</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.288252094833575</v>
+        <v>5.587913769660256</v>
       </c>
       <c r="E2">
-        <v>9.086735596419087</v>
+        <v>12.20519040871745</v>
       </c>
       <c r="F2">
-        <v>41.8907133535044</v>
+        <v>50.45908136372888</v>
       </c>
       <c r="G2">
-        <v>2.101446231662597</v>
+        <v>3.746203674247984</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.73793047111625</v>
+        <v>23.13577021670493</v>
       </c>
       <c r="J2">
-        <v>6.829541889033155</v>
+        <v>10.57228521820152</v>
       </c>
       <c r="K2">
-        <v>23.12458355053068</v>
+        <v>22.34956385378855</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.79722813504468</v>
+        <v>21.12225618396107</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.737631445181849</v>
+        <v>4.757803138350983</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.158030318993364</v>
+        <v>5.58204793906518</v>
       </c>
       <c r="E3">
-        <v>8.71724100297622</v>
+        <v>12.17880831628767</v>
       </c>
       <c r="F3">
-        <v>40.3608707225341</v>
+        <v>50.3194270853546</v>
       </c>
       <c r="G3">
-        <v>2.113784464858288</v>
+        <v>3.750485996051044</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.87536412920862</v>
+        <v>23.20308603613041</v>
       </c>
       <c r="J3">
-        <v>6.704613147163847</v>
+        <v>10.5828884959858</v>
       </c>
       <c r="K3">
-        <v>21.70716873027155</v>
+        <v>22.06844570978598</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.03904620954309</v>
+        <v>21.18762663375729</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.555946227949183</v>
+        <v>4.709707529428421</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.076711858033366</v>
+        <v>5.579191649810346</v>
       </c>
       <c r="E4">
-        <v>8.490375609271123</v>
+        <v>12.1652800854924</v>
       </c>
       <c r="F4">
-        <v>39.44208274817316</v>
+        <v>50.24705989510221</v>
       </c>
       <c r="G4">
-        <v>2.121509439451201</v>
+        <v>3.753249572876031</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.96922383192137</v>
+        <v>23.24782119517909</v>
       </c>
       <c r="J4">
-        <v>6.632300498741261</v>
+        <v>10.59129938261032</v>
       </c>
       <c r="K4">
-        <v>20.8120064027474</v>
+        <v>21.90069366044535</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.19088975037569</v>
+        <v>21.22972809481873</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.479809407463851</v>
+        <v>4.690221876971522</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.043271339786316</v>
+        <v>5.578216303340128</v>
       </c>
       <c r="E5">
-        <v>8.398015080462921</v>
+        <v>12.16044157835812</v>
       </c>
       <c r="F5">
-        <v>39.07298311298102</v>
+        <v>50.22094349030052</v>
       </c>
       <c r="G5">
-        <v>2.12469854259172</v>
+        <v>3.754409639891246</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.00974282221688</v>
+        <v>23.26690565098806</v>
       </c>
       <c r="J5">
-        <v>6.603913054238289</v>
+        <v>10.59520406605322</v>
       </c>
       <c r="K5">
-        <v>20.44115934920733</v>
+        <v>21.83363330331894</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.25363456852473</v>
+        <v>21.2473795333621</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.467041730797207</v>
+        <v>4.686993973645599</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.037701573753369</v>
+        <v>5.578065772815987</v>
       </c>
       <c r="E6">
-        <v>8.382686924765412</v>
+        <v>12.15967894868909</v>
       </c>
       <c r="F6">
-        <v>39.01202043343147</v>
+        <v>50.21681083906021</v>
       </c>
       <c r="G6">
-        <v>2.125230672741588</v>
+        <v>3.754604318872058</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.01660500336467</v>
+        <v>23.27012618634865</v>
       </c>
       <c r="J6">
-        <v>6.599263901842127</v>
+        <v>10.59588123348329</v>
       </c>
       <c r="K6">
-        <v>20.37922180016941</v>
+        <v>21.82257874709569</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.26410630036844</v>
+        <v>21.2503404512585</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.554927849340277</v>
+        <v>4.709444242241663</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.076262035584477</v>
+        <v>5.579177730729765</v>
       </c>
       <c r="E7">
-        <v>8.489129515250122</v>
+        <v>12.16521209793162</v>
       </c>
       <c r="F7">
-        <v>39.43708320005774</v>
+        <v>50.2466940109956</v>
       </c>
       <c r="G7">
-        <v>2.12155227783436</v>
+        <v>3.753265080558034</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.96976123345661</v>
+        <v>23.24807511658234</v>
       </c>
       <c r="J7">
-        <v>6.631913312342879</v>
+        <v>10.59135011147883</v>
       </c>
       <c r="K7">
-        <v>20.80702925063203</v>
+        <v>21.89978389545979</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.19173240919148</v>
+        <v>21.22996414387608</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.924198434104435</v>
+        <v>4.809436698797802</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.243656256121256</v>
+        <v>5.585737268980873</v>
       </c>
       <c r="E8">
-        <v>8.959379871208757</v>
+        <v>12.19554148623213</v>
       </c>
       <c r="F8">
-        <v>41.35903478139468</v>
+        <v>50.40815787479795</v>
       </c>
       <c r="G8">
-        <v>2.105671738195803</v>
+        <v>3.747652445883862</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.78328046383345</v>
+        <v>23.15827370735938</v>
       </c>
       <c r="J8">
-        <v>6.785539411019659</v>
+        <v>10.57554640408179</v>
       </c>
       <c r="K8">
-        <v>22.64110554463835</v>
+        <v>22.2516747604947</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.87992077890376</v>
+        <v>21.14438891552619</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.578969161869956</v>
+        <v>5.007046127501917</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.559688018317531</v>
+        <v>5.604459607570914</v>
       </c>
       <c r="E9">
-        <v>9.878714658389169</v>
+        <v>12.27605639019627</v>
       </c>
       <c r="F9">
-        <v>45.28756554320893</v>
+        <v>50.83039650524249</v>
       </c>
       <c r="G9">
-        <v>2.075533484474997</v>
+        <v>3.737704722336679</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.49837436967305</v>
+        <v>23.00922811053761</v>
       </c>
       <c r="J9">
-        <v>7.122874623139758</v>
+        <v>10.55966234293569</v>
       </c>
       <c r="K9">
-        <v>26.29543584067532</v>
+        <v>22.97666600480498</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.29425849798047</v>
+        <v>20.99211313806057</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.015962429961334</v>
+        <v>5.151594405828754</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.783000132767241</v>
+        <v>5.621709172680452</v>
       </c>
       <c r="E10">
-        <v>10.55019916336733</v>
+        <v>12.34779977638117</v>
       </c>
       <c r="F10">
-        <v>48.27296612048065</v>
+        <v>51.20400110284908</v>
       </c>
       <c r="G10">
-        <v>2.053716180860011</v>
+        <v>3.731032691341991</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.3470267709035</v>
+        <v>22.91629167557812</v>
       </c>
       <c r="J10">
-        <v>7.39469819239048</v>
+        <v>10.55723503440674</v>
       </c>
       <c r="K10">
-        <v>28.94796098813048</v>
+        <v>23.52568472387361</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.87854225527502</v>
+        <v>20.88964445096642</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.204921422941636</v>
+        <v>5.24202854214806</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.882502664490484</v>
+        <v>5.630297034069592</v>
       </c>
       <c r="E11">
-        <v>10.85485292422365</v>
+        <v>12.38310873994961</v>
       </c>
       <c r="F11">
-        <v>49.6552549611384</v>
+        <v>51.38743713527315</v>
       </c>
       <c r="G11">
-        <v>2.043786061546426</v>
+        <v>3.728133747806806</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.29300429934574</v>
+        <v>22.87762622528928</v>
       </c>
       <c r="J11">
-        <v>7.524133638012365</v>
+        <v>10.55814238175526</v>
       </c>
       <c r="K11">
-        <v>30.11581163634641</v>
+        <v>23.77794025364134</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.6923906460818</v>
+        <v>20.84505846361287</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.2750436426378</v>
+        <v>5.277392942209253</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.919878092839485</v>
+        <v>5.633653896176374</v>
       </c>
       <c r="E12">
-        <v>10.97014079883953</v>
+        <v>12.39685739552211</v>
       </c>
       <c r="F12">
-        <v>50.18257296740389</v>
+        <v>51.45880779298106</v>
       </c>
       <c r="G12">
-        <v>2.040017586145034</v>
+        <v>3.727055432455359</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.27489488968751</v>
+        <v>22.86350542243466</v>
       </c>
       <c r="J12">
-        <v>7.574039199763355</v>
+        <v>10.55877534059786</v>
       </c>
       <c r="K12">
-        <v>30.55293529586071</v>
+        <v>23.87373463266882</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.62231632038728</v>
+        <v>20.82846555733974</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.260005543914076</v>
+        <v>5.269803666181264</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.911842137879658</v>
+        <v>5.632926301974512</v>
       </c>
       <c r="E13">
-        <v>10.94531400893261</v>
+        <v>12.39387967607317</v>
       </c>
       <c r="F13">
-        <v>50.06882517856614</v>
+        <v>51.44335254520664</v>
       </c>
       <c r="G13">
-        <v>2.040829687509526</v>
+        <v>3.727286803960819</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.27868693686931</v>
+        <v>22.86652339445157</v>
       </c>
       <c r="J13">
-        <v>7.563250405476994</v>
+        <v>10.55862615168593</v>
       </c>
       <c r="K13">
-        <v>30.45901222807474</v>
+        <v>23.85309296999602</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.63738958554976</v>
+        <v>20.83202621254532</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.210719225438571</v>
+        <v>5.244950173512259</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.885583655362328</v>
+        <v>5.630571114417807</v>
       </c>
       <c r="E14">
-        <v>10.86433895657258</v>
+        <v>12.38423231461405</v>
       </c>
       <c r="F14">
-        <v>49.69855721408909</v>
+        <v>51.39327080573432</v>
       </c>
       <c r="G14">
-        <v>2.043476236671178</v>
+        <v>3.728044645076201</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.29146604440014</v>
+        <v>22.87645404828488</v>
       </c>
       <c r="J14">
-        <v>7.528221145739552</v>
+        <v>10.55818865619962</v>
       </c>
       <c r="K14">
-        <v>30.15187366875948</v>
+        <v>23.78581639746236</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.68661725151879</v>
+        <v>20.84368753039204</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.180342879828605</v>
+        <v>5.229647656010439</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.869459979503068</v>
+        <v>5.629142092957714</v>
       </c>
       <c r="E15">
-        <v>10.81473092713774</v>
+        <v>12.37837204425603</v>
       </c>
       <c r="F15">
-        <v>49.47227658613595</v>
+        <v>51.36284171112914</v>
       </c>
       <c r="G15">
-        <v>2.045096023647083</v>
+        <v>3.728511373868751</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.29960621667293</v>
+        <v>22.88260475285347</v>
       </c>
       <c r="J15">
-        <v>7.506882781026992</v>
+        <v>10.55795836246554</v>
       </c>
       <c r="K15">
-        <v>29.96309122373842</v>
+        <v>23.74464017344452</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.71682481798085</v>
+        <v>20.85086827931787</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.003414014082051</v>
+        <v>5.147315346957807</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.776454938435721</v>
+        <v>5.621162700097431</v>
       </c>
       <c r="E16">
-        <v>10.53027563431407</v>
+        <v>12.34554549707147</v>
       </c>
       <c r="F16">
-        <v>48.18314744338522</v>
+        <v>51.19228181949933</v>
       </c>
       <c r="G16">
-        <v>2.054364424058508</v>
+        <v>3.731224873347915</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.35087345698462</v>
+        <v>22.91889136806201</v>
       </c>
       <c r="J16">
-        <v>7.38636042574777</v>
+        <v>10.5572162269355</v>
       </c>
       <c r="K16">
-        <v>28.87089637311665</v>
+        <v>23.50924195165999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.8907664043677</v>
+        <v>20.89259898732713</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.892341526328713</v>
+        <v>5.10976091646931</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.718860288213927</v>
+        <v>5.616456175354652</v>
       </c>
       <c r="E17">
-        <v>10.35558218296904</v>
+        <v>12.32608760222873</v>
       </c>
       <c r="F17">
-        <v>47.39873955448995</v>
+        <v>51.09108067407364</v>
       </c>
       <c r="G17">
-        <v>2.060044009713771</v>
+        <v>3.732924305734387</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.38626702514685</v>
+        <v>22.94207822761199</v>
       </c>
       <c r="J17">
-        <v>7.313943072385642</v>
+        <v>10.55727627602919</v>
       </c>
       <c r="K17">
-        <v>28.19123957858885</v>
+        <v>23.36541017216481</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.99822419186155</v>
+        <v>20.91871820613306</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.827531083783091</v>
+        <v>5.088119540427556</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.685537096187947</v>
+        <v>5.613818956416908</v>
       </c>
       <c r="E18">
-        <v>10.25502298224779</v>
+        <v>12.31514790563803</v>
       </c>
       <c r="F18">
-        <v>46.94981541242679</v>
+        <v>51.03414348128775</v>
       </c>
       <c r="G18">
-        <v>2.06331075924288</v>
+        <v>3.733914601738834</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.40800561432486</v>
+        <v>22.95575455972497</v>
       </c>
       <c r="J18">
-        <v>7.272830425686829</v>
+        <v>10.55750015279238</v>
       </c>
       <c r="K18">
-        <v>27.79663538118167</v>
+        <v>23.2829229363455</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.0603098536754</v>
+        <v>20.93393217224859</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.805429220418498</v>
+        <v>5.080785881392673</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.674220981861229</v>
+        <v>5.61293808731543</v>
       </c>
       <c r="E19">
-        <v>10.22096093313532</v>
+        <v>12.31148737413398</v>
       </c>
       <c r="F19">
-        <v>46.79819391194746</v>
+        <v>51.01508472017595</v>
       </c>
       <c r="G19">
-        <v>2.06441703221865</v>
+        <v>3.734252106139328</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.41559698713343</v>
+        <v>22.96044345438761</v>
       </c>
       <c r="J19">
-        <v>7.259001511481141</v>
+        <v>10.55760846703575</v>
       </c>
       <c r="K19">
-        <v>27.66238362680793</v>
+        <v>23.25503831064338</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.08137922594406</v>
+        <v>20.93911616620279</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.904261207914547</v>
+        <v>5.113763086694421</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.725011706250068</v>
+        <v>5.616949976004003</v>
       </c>
       <c r="E20">
-        <v>10.3741867151441</v>
+        <v>12.32813289498893</v>
       </c>
       <c r="F20">
-        <v>47.4820062798328</v>
+        <v>51.10172237712146</v>
       </c>
       <c r="G20">
-        <v>2.059439457901811</v>
+        <v>3.732742071630501</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.38235489651918</v>
+        <v>22.93957476074959</v>
       </c>
       <c r="J20">
-        <v>7.321595755583964</v>
+        <v>10.55725028670479</v>
       </c>
       <c r="K20">
-        <v>28.26396832816944</v>
+        <v>23.38069701964309</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.98675635400904</v>
+        <v>20.91591802039695</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.225234822878209</v>
+        <v>5.252266745148467</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.89330465755411</v>
+        <v>5.631260059274084</v>
       </c>
       <c r="E21">
-        <v>10.88812494461745</v>
+        <v>12.38705577557071</v>
       </c>
       <c r="F21">
-        <v>49.80720474882916</v>
+        <v>51.40792952557649</v>
       </c>
       <c r="G21">
-        <v>2.04269916696065</v>
+        <v>3.727821521919185</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.28764694196286</v>
+        <v>22.87352302295849</v>
       </c>
       <c r="J21">
-        <v>7.538485356089693</v>
+        <v>10.55830930573277</v>
       </c>
       <c r="K21">
-        <v>30.24222248295036</v>
+        <v>23.80557051744237</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.67214660296624</v>
+        <v>20.84025443094714</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.426653422157675</v>
+        <v>5.35406034236956</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.001525121639495</v>
+        <v>5.641222675289925</v>
       </c>
       <c r="E22">
-        <v>11.22360029217276</v>
+        <v>12.42776473589656</v>
       </c>
       <c r="F22">
-        <v>51.34975295414291</v>
+        <v>51.61915461321678</v>
       </c>
       <c r="G22">
-        <v>2.031706581959399</v>
+        <v>3.724718975664513</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.23955427837506</v>
+        <v>22.83339171921053</v>
       </c>
       <c r="J22">
-        <v>7.685468227910211</v>
+        <v>10.56068803582641</v>
       </c>
       <c r="K22">
-        <v>31.50557896121744</v>
+        <v>24.08478722982339</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.46896428148555</v>
+        <v>20.79249882209527</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.319922586294407</v>
+        <v>5.300058621474275</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.943927162783285</v>
+        <v>5.635850199798385</v>
       </c>
       <c r="E23">
-        <v>11.04456754252014</v>
+        <v>12.40583859714636</v>
       </c>
       <c r="F23">
-        <v>50.5241957548917</v>
+        <v>51.50541524794869</v>
       </c>
       <c r="G23">
-        <v>2.037581028436771</v>
+        <v>3.726364538405882</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.26388068085418</v>
+        <v>22.85453210628723</v>
       </c>
       <c r="J23">
-        <v>7.60651828892304</v>
+        <v>10.55926413850581</v>
       </c>
       <c r="K23">
-        <v>30.83383156451929</v>
+        <v>23.93565252672449</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.57718480496138</v>
+        <v>20.81783203406028</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.898875288026194</v>
+        <v>5.111953861934731</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.722231307738835</v>
+        <v>5.616726514849727</v>
       </c>
       <c r="E24">
-        <v>10.36577599983478</v>
+        <v>12.32720744859571</v>
       </c>
       <c r="F24">
-        <v>47.44435505911655</v>
+        <v>51.09690738390542</v>
       </c>
       <c r="G24">
-        <v>2.059712770624188</v>
+        <v>3.732824418326373</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.38411925523601</v>
+        <v>22.94070550084435</v>
       </c>
       <c r="J24">
-        <v>7.318134358854947</v>
+        <v>10.55726144669341</v>
       </c>
       <c r="K24">
-        <v>28.23109971883535</v>
+        <v>23.37378519502697</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.99194000736314</v>
+        <v>20.91718336858687</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.40946799205502</v>
+        <v>4.953588568731957</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.475674236540437</v>
+        <v>5.598775141453702</v>
       </c>
       <c r="E25">
-        <v>9.630628514231674</v>
+        <v>12.25204468814137</v>
       </c>
       <c r="F25">
-        <v>44.20786800346706</v>
+        <v>50.70495136807557</v>
       </c>
       <c r="G25">
-        <v>2.083606647760917</v>
+        <v>3.740283422921848</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.56595986486194</v>
+        <v>23.0466449080885</v>
       </c>
       <c r="J25">
-        <v>7.027568185478655</v>
+        <v>10.56233817608212</v>
       </c>
       <c r="K25">
-        <v>25.28153183279904</v>
+        <v>22.77730171147421</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.45006043322346</v>
+        <v>21.03165107535158</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_162/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.836692403563232</v>
+        <v>6.019637715970833</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.587913769660256</v>
+        <v>3.288252094833521</v>
       </c>
       <c r="E2">
-        <v>12.20519040871745</v>
+        <v>9.086735596419057</v>
       </c>
       <c r="F2">
-        <v>50.45908136372888</v>
+        <v>41.89071335350422</v>
       </c>
       <c r="G2">
-        <v>3.746203674247984</v>
+        <v>2.101446231662472</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.13577021670493</v>
+        <v>15.73793047111609</v>
       </c>
       <c r="J2">
-        <v>10.57228521820152</v>
+        <v>6.829541889033155</v>
       </c>
       <c r="K2">
-        <v>22.34956385378855</v>
+        <v>23.12458355053068</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.12225618396107</v>
+        <v>13.79722813504456</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.757803138350983</v>
+        <v>5.737631445181947</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.58204793906518</v>
+        <v>3.158030318993342</v>
       </c>
       <c r="E3">
-        <v>12.17880831628767</v>
+        <v>8.717241002976237</v>
       </c>
       <c r="F3">
-        <v>50.3194270853546</v>
+        <v>40.36087072253379</v>
       </c>
       <c r="G3">
-        <v>3.750485996051044</v>
+        <v>2.113784464858553</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.20308603613041</v>
+        <v>15.8753641292085</v>
       </c>
       <c r="J3">
-        <v>10.5828884959858</v>
+        <v>6.704613147163832</v>
       </c>
       <c r="K3">
-        <v>22.06844570978598</v>
+        <v>21.7071687302715</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.18762663375729</v>
+        <v>14.03904620954296</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.709707529428421</v>
+        <v>5.555946227949182</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.579191649810346</v>
+        <v>3.076711858033385</v>
       </c>
       <c r="E4">
-        <v>12.1652800854924</v>
+        <v>8.490375609271172</v>
       </c>
       <c r="F4">
-        <v>50.24705989510221</v>
+        <v>39.44208274817326</v>
       </c>
       <c r="G4">
-        <v>3.753249572876031</v>
+        <v>2.121509439451466</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.24782119517909</v>
+        <v>15.96922383192145</v>
       </c>
       <c r="J4">
-        <v>10.59129938261032</v>
+        <v>6.632300498741298</v>
       </c>
       <c r="K4">
-        <v>21.90069366044535</v>
+        <v>20.8120064027474</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.22972809481873</v>
+        <v>14.19088975037578</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.690221876971522</v>
+        <v>5.479809407463851</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.578216303340128</v>
+        <v>3.043271339786382</v>
       </c>
       <c r="E5">
-        <v>12.16044157835812</v>
+        <v>8.398015080462914</v>
       </c>
       <c r="F5">
-        <v>50.22094349030052</v>
+        <v>39.07298311298092</v>
       </c>
       <c r="G5">
-        <v>3.754409639891246</v>
+        <v>2.124698542591855</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.26690565098806</v>
+        <v>16.00974282221689</v>
       </c>
       <c r="J5">
-        <v>10.59520406605322</v>
+        <v>6.603913054238242</v>
       </c>
       <c r="K5">
-        <v>21.83363330331894</v>
+        <v>20.4411593492073</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.2473795333621</v>
+        <v>14.25363456852473</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.686993973645599</v>
+        <v>5.467041730797157</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.578065772815987</v>
+        <v>3.037701573753448</v>
       </c>
       <c r="E6">
-        <v>12.15967894868909</v>
+        <v>8.382686924765443</v>
       </c>
       <c r="F6">
-        <v>50.21681083906021</v>
+        <v>39.0120204334313</v>
       </c>
       <c r="G6">
-        <v>3.754604318872058</v>
+        <v>2.125230672741727</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.27012618634865</v>
+        <v>16.01660500336452</v>
       </c>
       <c r="J6">
-        <v>10.59588123348329</v>
+        <v>6.599263901842174</v>
       </c>
       <c r="K6">
-        <v>21.82257874709569</v>
+        <v>20.37922180016941</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.2503404512585</v>
+        <v>14.26410630036831</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.709444242241663</v>
+        <v>5.554927849340271</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.579177730729765</v>
+        <v>3.07626203558427</v>
       </c>
       <c r="E7">
-        <v>12.16521209793162</v>
+        <v>8.489129515250115</v>
       </c>
       <c r="F7">
-        <v>50.2466940109956</v>
+        <v>39.43708320005769</v>
       </c>
       <c r="G7">
-        <v>3.753265080558034</v>
+        <v>2.121552277834362</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.24807511658234</v>
+        <v>15.96976123345662</v>
       </c>
       <c r="J7">
-        <v>10.59135011147883</v>
+        <v>6.631913312342876</v>
       </c>
       <c r="K7">
-        <v>21.89978389545979</v>
+        <v>20.80702925063202</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.22996414387608</v>
+        <v>14.19173240919149</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.809436698797802</v>
+        <v>5.924198434104385</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.585737268980873</v>
+        <v>3.243656256121285</v>
       </c>
       <c r="E8">
-        <v>12.19554148623213</v>
+        <v>8.959379871208711</v>
       </c>
       <c r="F8">
-        <v>50.40815787479795</v>
+        <v>41.35903478139479</v>
       </c>
       <c r="G8">
-        <v>3.747652445883862</v>
+        <v>2.105671738195935</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.15827370735938</v>
+        <v>15.78328046383345</v>
       </c>
       <c r="J8">
-        <v>10.57554640408179</v>
+        <v>6.785539411019583</v>
       </c>
       <c r="K8">
-        <v>22.2516747604947</v>
+        <v>22.64110554463837</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.14438891552619</v>
+        <v>13.87992077890373</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.007046127501917</v>
+        <v>6.578969161869964</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.604459607570914</v>
+        <v>3.55968801831753</v>
       </c>
       <c r="E9">
-        <v>12.27605639019627</v>
+        <v>9.878714658389159</v>
       </c>
       <c r="F9">
-        <v>50.83039650524249</v>
+        <v>45.28756554320898</v>
       </c>
       <c r="G9">
-        <v>3.737704722336679</v>
+        <v>2.075533484475258</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.00922811053761</v>
+        <v>15.49837436967305</v>
       </c>
       <c r="J9">
-        <v>10.55966234293569</v>
+        <v>7.122874623139774</v>
       </c>
       <c r="K9">
-        <v>22.97666600480498</v>
+        <v>26.29543584067533</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.99211313806057</v>
+        <v>13.29425849798047</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.151594405828754</v>
+        <v>7.015962429961291</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.621709172680452</v>
+        <v>3.783000132767163</v>
       </c>
       <c r="E10">
-        <v>12.34779977638117</v>
+        <v>10.55019916336732</v>
       </c>
       <c r="F10">
-        <v>51.20400110284908</v>
+        <v>48.27296612048062</v>
       </c>
       <c r="G10">
-        <v>3.731032691341991</v>
+        <v>2.053716180860144</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.91629167557812</v>
+        <v>15.34702677090356</v>
       </c>
       <c r="J10">
-        <v>10.55723503440674</v>
+        <v>7.394698192390482</v>
       </c>
       <c r="K10">
-        <v>23.52568472387361</v>
+        <v>28.94796098813039</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.88964445096642</v>
+        <v>12.87854225527505</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.24202854214806</v>
+        <v>7.204921422941518</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.630297034069592</v>
+        <v>3.882502664490518</v>
       </c>
       <c r="E11">
-        <v>12.38310873994961</v>
+        <v>10.85485292422364</v>
       </c>
       <c r="F11">
-        <v>51.38743713527315</v>
+        <v>49.65525496113838</v>
       </c>
       <c r="G11">
-        <v>3.728133747806806</v>
+        <v>2.043786061546288</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.87762622528928</v>
+        <v>15.29300429934578</v>
       </c>
       <c r="J11">
-        <v>10.55814238175526</v>
+        <v>7.524133638012373</v>
       </c>
       <c r="K11">
-        <v>23.77794025364134</v>
+        <v>30.1158116363464</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.84505846361287</v>
+        <v>12.6923906460818</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.277392942209253</v>
+        <v>7.275043642637787</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.633653896176374</v>
+        <v>3.919878092839526</v>
       </c>
       <c r="E12">
-        <v>12.39685739552211</v>
+        <v>10.9701407988395</v>
       </c>
       <c r="F12">
-        <v>51.45880779298106</v>
+        <v>50.18257296740391</v>
       </c>
       <c r="G12">
-        <v>3.727055432455359</v>
+        <v>2.040017586145031</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.86350542243466</v>
+        <v>15.27489488968746</v>
       </c>
       <c r="J12">
-        <v>10.55877534059786</v>
+        <v>7.574039199763297</v>
       </c>
       <c r="K12">
-        <v>23.87373463266882</v>
+        <v>30.55293529586075</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.82846555733974</v>
+        <v>12.62231632038725</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.269803666181264</v>
+        <v>7.260005543914071</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.632926301974512</v>
+        <v>3.911842137879619</v>
       </c>
       <c r="E13">
-        <v>12.39387967607317</v>
+        <v>10.94531400893261</v>
       </c>
       <c r="F13">
-        <v>51.44335254520664</v>
+        <v>50.06882517856614</v>
       </c>
       <c r="G13">
-        <v>3.727286803960819</v>
+        <v>2.040829687509258</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.86652339445157</v>
+        <v>15.27868693686932</v>
       </c>
       <c r="J13">
-        <v>10.55862615168593</v>
+        <v>7.563250405476987</v>
       </c>
       <c r="K13">
-        <v>23.85309296999602</v>
+        <v>30.45901222807474</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.83202621254532</v>
+        <v>12.63738958554976</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.244950173512259</v>
+        <v>7.210719225438529</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.630571114417807</v>
+        <v>3.88558365536232</v>
       </c>
       <c r="E14">
-        <v>12.38423231461405</v>
+        <v>10.86433895657258</v>
       </c>
       <c r="F14">
-        <v>51.39327080573432</v>
+        <v>49.69855721408909</v>
       </c>
       <c r="G14">
-        <v>3.728044645076201</v>
+        <v>2.043476236670785</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.87645404828488</v>
+        <v>15.29146604440008</v>
       </c>
       <c r="J14">
-        <v>10.55818865619962</v>
+        <v>7.528221145739551</v>
       </c>
       <c r="K14">
-        <v>23.78581639746236</v>
+        <v>30.15187366875949</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.84368753039204</v>
+        <v>12.68661725151874</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.229647656010439</v>
+        <v>7.180342879828585</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.629142092957714</v>
+        <v>3.869459979502994</v>
       </c>
       <c r="E15">
-        <v>12.37837204425603</v>
+        <v>10.81473092713773</v>
       </c>
       <c r="F15">
-        <v>51.36284171112914</v>
+        <v>49.47227658613592</v>
       </c>
       <c r="G15">
-        <v>3.728511373868751</v>
+        <v>2.045096023646958</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.88260475285347</v>
+        <v>15.29960621667287</v>
       </c>
       <c r="J15">
-        <v>10.55795836246554</v>
+        <v>7.506882781026977</v>
       </c>
       <c r="K15">
-        <v>23.74464017344452</v>
+        <v>29.96309122373847</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.85086827931787</v>
+        <v>12.7168248179808</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.147315346957807</v>
+        <v>7.003414014082019</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.621162700097431</v>
+        <v>3.776454938435716</v>
       </c>
       <c r="E16">
-        <v>12.34554549707147</v>
+        <v>10.53027563431407</v>
       </c>
       <c r="F16">
-        <v>51.19228181949933</v>
+        <v>48.18314744338525</v>
       </c>
       <c r="G16">
-        <v>3.731224873347915</v>
+        <v>2.054364424058508</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.91889136806201</v>
+        <v>15.35087345698466</v>
       </c>
       <c r="J16">
-        <v>10.5572162269355</v>
+        <v>7.38636042574776</v>
       </c>
       <c r="K16">
-        <v>23.50924195165999</v>
+        <v>28.87089637311666</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.89259898732713</v>
+        <v>12.89076640436771</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.10976091646931</v>
+        <v>6.892341526328661</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.616456175354652</v>
+        <v>3.718860288213813</v>
       </c>
       <c r="E17">
-        <v>12.32608760222873</v>
+        <v>10.35558218296901</v>
       </c>
       <c r="F17">
-        <v>51.09108067407364</v>
+        <v>47.39873955449001</v>
       </c>
       <c r="G17">
-        <v>3.732924305734387</v>
+        <v>2.060044009713899</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.94207822761199</v>
+        <v>15.38626702514694</v>
       </c>
       <c r="J17">
-        <v>10.55727627602919</v>
+        <v>7.313943072385665</v>
       </c>
       <c r="K17">
-        <v>23.36541017216481</v>
+        <v>28.19123957858881</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.91871820613306</v>
+        <v>12.99822419186162</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.088119540427556</v>
+        <v>6.827531083783082</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.613818956416908</v>
+        <v>3.685537096187962</v>
       </c>
       <c r="E18">
-        <v>12.31514790563803</v>
+        <v>10.25502298224779</v>
       </c>
       <c r="F18">
-        <v>51.03414348128775</v>
+        <v>46.94981541242684</v>
       </c>
       <c r="G18">
-        <v>3.733914601738834</v>
+        <v>2.063310759242751</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.95575455972497</v>
+        <v>15.40800561432489</v>
       </c>
       <c r="J18">
-        <v>10.55750015279238</v>
+        <v>7.272830425686798</v>
       </c>
       <c r="K18">
-        <v>23.2829229363455</v>
+        <v>27.79663538118164</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.93393217224859</v>
+        <v>13.0603098536754</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.080785881392673</v>
+        <v>6.805429220418377</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.61293808731543</v>
+        <v>3.674220981861199</v>
       </c>
       <c r="E19">
-        <v>12.31148737413398</v>
+        <v>10.22096093313532</v>
       </c>
       <c r="F19">
-        <v>51.01508472017595</v>
+        <v>46.79819391194739</v>
       </c>
       <c r="G19">
-        <v>3.734252106139328</v>
+        <v>2.064417032218516</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.96044345438761</v>
+        <v>15.41559698713337</v>
       </c>
       <c r="J19">
-        <v>10.55760846703575</v>
+        <v>7.259001511481145</v>
       </c>
       <c r="K19">
-        <v>23.25503831064338</v>
+        <v>27.662383626808</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.93911616620279</v>
+        <v>13.08137922594391</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.113763086694421</v>
+        <v>6.904261207914549</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.616949976004003</v>
+        <v>3.725011706250015</v>
       </c>
       <c r="E20">
-        <v>12.32813289498893</v>
+        <v>10.37418671514413</v>
       </c>
       <c r="F20">
-        <v>51.10172237712146</v>
+        <v>47.4820062798327</v>
       </c>
       <c r="G20">
-        <v>3.732742071630501</v>
+        <v>2.05943945790154</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.93957476074959</v>
+        <v>15.382354896519</v>
       </c>
       <c r="J20">
-        <v>10.55725028670479</v>
+        <v>7.321595755583996</v>
       </c>
       <c r="K20">
-        <v>23.38069701964309</v>
+        <v>28.26396832816963</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.91591802039695</v>
+        <v>12.9867563540089</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.252266745148467</v>
+        <v>7.225234822878197</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.631260059274084</v>
+        <v>3.893304657554118</v>
       </c>
       <c r="E21">
-        <v>12.38705577557071</v>
+        <v>10.88812494461745</v>
       </c>
       <c r="F21">
-        <v>51.40792952557649</v>
+        <v>49.80720474882923</v>
       </c>
       <c r="G21">
-        <v>3.727821521919185</v>
+        <v>2.042699166960392</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.87352302295849</v>
+        <v>15.28764694196285</v>
       </c>
       <c r="J21">
-        <v>10.55830930573277</v>
+        <v>7.538485356089708</v>
       </c>
       <c r="K21">
-        <v>23.80557051744237</v>
+        <v>30.24222248295037</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.84025443094714</v>
+        <v>12.67214660296622</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.35406034236956</v>
+        <v>7.426653422157662</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.641222675289925</v>
+        <v>4.001525121639417</v>
       </c>
       <c r="E22">
-        <v>12.42776473589656</v>
+        <v>11.22360029217273</v>
       </c>
       <c r="F22">
-        <v>51.61915461321678</v>
+        <v>51.34975295414294</v>
       </c>
       <c r="G22">
-        <v>3.724718975664513</v>
+        <v>2.031706581959404</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.83339171921053</v>
+        <v>15.23955427837506</v>
       </c>
       <c r="J22">
-        <v>10.56068803582641</v>
+        <v>7.685468227910166</v>
       </c>
       <c r="K22">
-        <v>24.08478722982339</v>
+        <v>31.50557896121739</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.79249882209527</v>
+        <v>12.46896428148549</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.300058621474275</v>
+        <v>7.319922586294394</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.635850199798385</v>
+        <v>3.943927162783269</v>
       </c>
       <c r="E23">
-        <v>12.40583859714636</v>
+        <v>11.04456754252014</v>
       </c>
       <c r="F23">
-        <v>51.50541524794869</v>
+        <v>50.52419575489155</v>
       </c>
       <c r="G23">
-        <v>3.726364538405882</v>
+        <v>2.037581028436899</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.85453210628723</v>
+        <v>15.26388068085416</v>
       </c>
       <c r="J23">
-        <v>10.55926413850581</v>
+        <v>7.606518288923035</v>
       </c>
       <c r="K23">
-        <v>23.93565252672449</v>
+        <v>30.83383156451924</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.81783203406028</v>
+        <v>12.57718480496137</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.111953861934731</v>
+        <v>6.898875288026171</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.616726514849727</v>
+        <v>3.722231307738832</v>
       </c>
       <c r="E24">
-        <v>12.32720744859571</v>
+        <v>10.3657759998348</v>
       </c>
       <c r="F24">
-        <v>51.09690738390542</v>
+        <v>47.44435505911657</v>
       </c>
       <c r="G24">
-        <v>3.732824418326373</v>
+        <v>2.059712770623924</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.94070550084435</v>
+        <v>15.38411925523609</v>
       </c>
       <c r="J24">
-        <v>10.55726144669341</v>
+        <v>7.318134358854985</v>
       </c>
       <c r="K24">
-        <v>23.37378519502697</v>
+        <v>28.23109971883524</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.91718336858687</v>
+        <v>12.99194000736326</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.953588568731957</v>
+        <v>6.409467992055072</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.598775141453702</v>
+        <v>3.475674236540492</v>
       </c>
       <c r="E25">
-        <v>12.25204468814137</v>
+        <v>9.630628514231674</v>
       </c>
       <c r="F25">
-        <v>50.70495136807557</v>
+        <v>44.20786800346708</v>
       </c>
       <c r="G25">
-        <v>3.740283422921848</v>
+        <v>2.083606647761183</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.0466449080885</v>
+        <v>15.56595986486191</v>
       </c>
       <c r="J25">
-        <v>10.56233817608212</v>
+        <v>7.027568185478616</v>
       </c>
       <c r="K25">
-        <v>22.77730171147421</v>
+        <v>25.28153183279905</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.03165107535158</v>
+        <v>13.45006043322346</v>
       </c>
       <c r="O25">
         <v>0</v>
